--- a/example.xlsx
+++ b/example.xlsx
@@ -5,62 +5,59 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bpasa\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Full-Stack Development\PV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243DBFFA-AA39-4AEF-BE4D-617E6319BDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D7BD1-95AC-4ECB-B7B2-FE4992670EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>İsim 1</t>
-  </si>
-  <si>
-    <t>Numara 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Lokasyon 1</t>
   </si>
   <si>
-    <t>İsim 2</t>
-  </si>
-  <si>
-    <t>Numara 2</t>
-  </si>
-  <si>
     <t>Lokasyon 2</t>
   </si>
   <si>
-    <t>İsim 3</t>
-  </si>
-  <si>
-    <t>İsim 4</t>
-  </si>
-  <si>
-    <t>Numara 3</t>
-  </si>
-  <si>
     <t>Lokasyon 3</t>
   </si>
   <si>
-    <t>Numara 4</t>
-  </si>
-  <si>
     <t>Lokasyon 4</t>
+  </si>
+  <si>
+    <t>İsim Soyisim1</t>
+  </si>
+  <si>
+    <t>İsim Soyisim2</t>
+  </si>
+  <si>
+    <t>İsim Soyisim3</t>
+  </si>
+  <si>
+    <t>İsim Soyisim4</t>
   </si>
 </sst>
 </file>
@@ -381,53 +378,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>5342625806</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5342625806</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>5342625806</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>5342625806</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
